--- a/api_auto_maven/src/test/resources/base03/testcase.xlsx
+++ b/api_auto_maven/src/test/resources/base03/testcase.xlsx
@@ -1,52 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C477204E-FF16-4DF7-960D-F4AAD9DC2334}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3330" yWindow="2625" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8765/futureloan/mvc/api/member/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>手机号码已被注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号码格式不正确</t>
@@ -55,23 +29,61 @@
     <t>密码长度必须为6~18</t>
   </si>
   <si>
-    <t>happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lemon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231231111213123fdsfsdfsdfsdfsdfs123123123123131</t>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api%20/member/register</t>
+  </si>
+  <si>
+    <t>Api(接口地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params(参数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected(期望结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"lemon","pwd":"123456","regname":"caicai" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"13783948731","pwd":"12345","regname":"caicai" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"13783948731","pwd":"123456","regname":"caicai"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"13783948731","pwd":"123456"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666666","pwd":"1234567"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +105,18 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,10 +140,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -127,9 +170,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -143,7 +257,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -178,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,9 +325,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,127 +569,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="67.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>13888888888</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13888888888</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>13888888888</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost:12345/futureloan/mvc/api%20/member/register" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3:A4" r:id="rId2" display="http://localhost:12345/futureloan/mvc/api%20/member/register" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -549,12 +676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
